--- a/medicine/Psychotrope/Monkey_Shoulder/Monkey_Shoulder.xlsx
+++ b/medicine/Psychotrope/Monkey_Shoulder/Monkey_Shoulder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monkey Shoulder est une marque de blended malt whisky produit à la distillerie de Kininvie en Écosse. Plus précisément, il s'agit d'un mélange triple malt issu des whisky distillés aux distilleries Glenfiddich, Balvenie et Kininvie appartenant toutes à William Grant &amp; Sons.
 Le nom monkey shoulder (« épaule de singe ») est un hommage aux ouvriers des distilleries qui pouvaient souffrir d'une maladie (rhumatisme) liée à des gestes répétitifs (comme remuer l'orge à l'aide d'une pelle dans les aires de maltage).
